--- a/data/trans_orig/P14A97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCA0EF5-4248-48E7-A9C7-E5E44EA10EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8DC471-2FA3-49AB-9D57-B67913AD93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5120D028-2E68-4913-BAD3-8621E31E5669}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F8B9F0-2FE2-477D-9E37-D64D99769769}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
   <si>
     <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2012 (Tasa respuesta: 4,98%)</t>
   </si>
@@ -84,19 +84,19 @@
     <t>76,68%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,19 +108,19 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,55 +132,55 @@
     <t>77,52%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -189,55 +189,55 @@
     <t>80,58%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,55 +246,55 @@
     <t>81,63%</t>
   </si>
   <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,55 +303,55 @@
     <t>74,68%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>25,32%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -360,16 +360,16 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>83,39%</t>
+    <t>83,89%</t>
   </si>
   <si>
     <t>97,89%</t>
@@ -378,19 +378,19 @@
     <t>90,87%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
   </si>
   <si>
     <t>6,61%</t>
@@ -399,430 +399,436 @@
     <t>2,11%</t>
   </si>
   <si>
-    <t>16,61%</t>
+    <t>16,11%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>80,68%</t>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2015 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>73,21%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D14C23-12BB-4821-B14B-D32267565FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D29C8B-C8B0-4555-9CEC-9DC26B3331AF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2453,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5537E8A5-F154-46EA-B7B5-AA5B4B18640F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6235C83-9995-4FAA-B7F5-E43B0DB2C404}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,7 +2759,7 @@
         <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2762,13 +2768,13 @@
         <v>27563</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,10 +2807,10 @@
         <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -2813,10 +2819,10 @@
         <v>14363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>173</v>
@@ -2893,7 +2899,7 @@
         <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2902,13 +2908,13 @@
         <v>41205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2917,13 +2923,13 @@
         <v>51280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2944,13 @@
         <v>3978</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2953,13 +2959,13 @@
         <v>8751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2968,13 +2974,13 @@
         <v>12729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3048,13 @@
         <v>25713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3057,13 +3063,13 @@
         <v>63095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3072,13 +3078,13 @@
         <v>88808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3099,13 @@
         <v>9408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3108,13 +3114,13 @@
         <v>10774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -3123,13 +3129,13 @@
         <v>20182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3203,13 @@
         <v>20340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3212,13 +3218,13 @@
         <v>57713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -3227,13 +3233,13 @@
         <v>78052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3254,13 @@
         <v>11802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3263,13 +3269,13 @@
         <v>6564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3278,13 +3284,13 @@
         <v>18367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3358,13 @@
         <v>25944</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3367,13 +3373,13 @@
         <v>71203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>87</v>
@@ -3382,13 +3388,13 @@
         <v>97148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3409,13 @@
         <v>6378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -3418,13 +3424,13 @@
         <v>14287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -3433,13 +3439,13 @@
         <v>20664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3513,13 @@
         <v>94011</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -3522,13 +3528,13 @@
         <v>259681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>328</v>
@@ -3537,13 +3543,13 @@
         <v>353692</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3564,13 @@
         <v>40288</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>45</v>
@@ -3573,13 +3579,13 @@
         <v>49819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>84</v>
@@ -3588,13 +3594,13 @@
         <v>90107</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A97-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A97-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8DC471-2FA3-49AB-9D57-B67913AD93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{899AE3A9-8D8E-4ABD-8E73-13902671B944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6F8B9F0-2FE2-477D-9E37-D64D99769769}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59317E30-08E7-4EEF-91A8-294070690F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,19 +84,19 @@
     <t>76,68%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>74,8%</t>
   </si>
   <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,19 +108,19 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
   </si>
   <si>
     <t>25,2%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,55 +132,55 @@
     <t>77,52%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>74,76%</t>
   </si>
   <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
   </si>
   <si>
     <t>22,48%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
   </si>
   <si>
     <t>25,24%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -189,55 +189,55 @@
     <t>80,58%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>79,05%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>19,42%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,7 +246,7 @@
     <t>81,63%</t>
   </si>
   <si>
-    <t>62,26%</t>
+    <t>64,35%</t>
   </si>
   <si>
     <t>93,02%</t>
@@ -255,19 +255,19 @@
     <t>90,18%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>87,26%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>18,37%</t>
@@ -276,25 +276,25 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>37,74%</t>
+    <t>35,65%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
   </si>
   <si>
     <t>12,74%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,16 +303,16 @@
     <t>74,68%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>82,06%</t>
+    <t>82,36%</t>
   </si>
   <si>
     <t>97,91%</t>
@@ -321,19 +321,19 @@
     <t>87,92%</t>
   </si>
   <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>25,32%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
   </si>
   <si>
     <t>6,63%</t>
@@ -342,16 +342,16 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>17,94%</t>
+    <t>17,64%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -360,172 +360,172 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>90,87%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>80,62%</t>
   </si>
   <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>86,91%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>19,38%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>13,09%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2015 (Tasa respuesta: 6,27%)</t>
+    <t>Población que recibe medicación o terapia por otra enfermedad 1 en 2016 (Tasa respuesta: 6,27%)</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>28,72%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>37,61%</t>
+    <t>38,31%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>71,28%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>62,39%</t>
+    <t>61,69%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>56,0%</t>
+    <t>55,81%</t>
   </si>
   <si>
     <t>87,27%</t>
@@ -534,16 +534,19 @@
     <t>65,74%</t>
   </si>
   <si>
-    <t>50,24%</t>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>26,86%</t>
@@ -552,283 +555,280 @@
     <t>12,73%</t>
   </si>
   <si>
-    <t>44,0%</t>
+    <t>44,19%</t>
   </si>
   <si>
     <t>34,26%</t>
   </si>
   <si>
-    <t>49,76%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
   </si>
   <si>
     <t>73,21%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>85,41%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>81,48%</t>
   </si>
   <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>71,49%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
+    <t>28,51%</t>
   </si>
   <si>
     <t>80,27%</t>
   </si>
   <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D29C8B-C8B0-4555-9CEC-9DC26B3331AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB77254-251C-49AD-A597-7319C2758D7B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2459,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6235C83-9995-4FAA-B7F5-E43B0DB2C404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81AF1BA-A607-41F5-86DF-EF0C057229ED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2774,7 +2774,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2789,13 @@
         <v>6750</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -2804,13 +2804,13 @@
         <v>7612</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -2819,13 +2819,13 @@
         <v>14363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2893,13 @@
         <v>10076</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2908,13 +2908,13 @@
         <v>41205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2923,13 +2923,13 @@
         <v>51280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>3978</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -2959,13 +2959,13 @@
         <v>8751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -2974,13 +2974,13 @@
         <v>12729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3048,13 @@
         <v>25713</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3063,13 +3063,13 @@
         <v>63095</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -3078,13 +3078,13 @@
         <v>88808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3099,13 @@
         <v>9408</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3114,13 +3114,13 @@
         <v>10774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -3129,13 +3129,13 @@
         <v>20182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3203,13 @@
         <v>20340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3218,13 +3218,13 @@
         <v>57713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -3233,13 +3233,13 @@
         <v>78052</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3254,13 @@
         <v>11802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3269,13 +3269,13 @@
         <v>6564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3284,10 +3284,10 @@
         <v>18367</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>227</v>
@@ -3561,7 +3561,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>40288</v>
+        <v>40289</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>255</v>
@@ -3612,7 +3612,7 @@
         <v>131</v>
       </c>
       <c r="D24" s="7">
-        <v>134299</v>
+        <v>134300</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
